--- a/datasheet/testData.xlsx
+++ b/datasheet/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82F6940A-DC80-4BBF-BCFD-C529A1475AAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{048C23F6-E81E-4700-9123-8B046C399467}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -34,20 +34,67 @@
     <t>TestCaseSample</t>
   </si>
   <si>
-    <t>abd</t>
-  </si>
-  <si>
-    <t>sdkjfhskjd</t>
+    <t>testFirstName</t>
+  </si>
+  <si>
+    <t>testLastName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>brampton</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>l6y4g2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,13 +117,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,20 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +431,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -389,8 +463,32 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1112223333</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{9C7E4A8E-B37F-4689-9CCB-CC343525A06E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>